--- a/data/5016.xlsx
+++ b/data/5016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44001,6 +44001,41 @@
         </is>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>WARISAN</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>1300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5016.xlsx
+++ b/data/5016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44036,6 +44036,43 @@
         <v>1300</v>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>WARISAN</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I1209" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5016.xlsx
+++ b/data/5016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44073,6 +44073,43 @@
         </is>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>WARISAN</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I1210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5016.xlsx
+++ b/data/5016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44110,6 +44110,43 @@
         </is>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>WARISAN</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I1211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5016.xlsx
+++ b/data/5016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44147,6 +44147,43 @@
         </is>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>WARISAN</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I1212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5016.xlsx
+++ b/data/5016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44184,6 +44184,43 @@
         </is>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>WARISAN</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I1213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5016.xlsx
+++ b/data/5016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44221,6 +44221,43 @@
         </is>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>WARISAN</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I1214" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5016.xlsx
+++ b/data/5016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44258,6 +44258,43 @@
         </is>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>WARISAN</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5016.xlsx
+++ b/data/5016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44295,6 +44295,43 @@
         </is>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>WARISAN</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5016.xlsx
+++ b/data/5016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44332,6 +44332,43 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>WARISAN</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5016.xlsx
+++ b/data/5016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44369,6 +44369,43 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>WARISAN</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5016.xlsx
+++ b/data/5016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44406,6 +44406,43 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>WARISAN</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5016.xlsx
+++ b/data/5016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44443,6 +44443,78 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>WARISAN</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>WARISAN</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5016.xlsx
+++ b/data/5016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44515,6 +44515,43 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>WARISAN</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5016.xlsx
+++ b/data/5016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44552,6 +44552,43 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>WARISAN</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5016.xlsx
+++ b/data/5016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44589,6 +44589,43 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>WARISAN</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5016.xlsx
+++ b/data/5016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44626,6 +44626,43 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>WARISAN</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5016.xlsx
+++ b/data/5016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44663,6 +44663,41 @@
         </is>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>WARISAN</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5016.xlsx
+++ b/data/5016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44698,6 +44698,80 @@
         <v>100</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>WARISAN</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>WARISAN</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5016.xlsx
+++ b/data/5016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44772,6 +44772,43 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>WARISAN</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I1229" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5016.xlsx
+++ b/data/5016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44809,6 +44809,43 @@
         </is>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>WARISAN</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I1230" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5016.xlsx
+++ b/data/5016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2229"/>
+  <dimension ref="A1:I2230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79811,6 +79811,43 @@
         </is>
       </c>
     </row>
+    <row r="2230">
+      <c r="A2230" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2230" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2230" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="D2230" t="inlineStr">
+        <is>
+          <t>WARISAN</t>
+        </is>
+      </c>
+      <c r="E2230" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F2230" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G2230" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H2230" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I2230" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5016.xlsx
+++ b/data/5016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2230"/>
+  <dimension ref="A1:I2231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79848,6 +79848,43 @@
         </is>
       </c>
     </row>
+    <row r="2231">
+      <c r="A2231" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2231" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2231" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="D2231" t="inlineStr">
+        <is>
+          <t>WARISAN</t>
+        </is>
+      </c>
+      <c r="E2231" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F2231" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G2231" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H2231" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I2231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5016.xlsx
+++ b/data/5016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2231"/>
+  <dimension ref="A1:I2232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79885,6 +79885,43 @@
         </is>
       </c>
     </row>
+    <row r="2232">
+      <c r="A2232" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2232" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2232" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="D2232" t="inlineStr">
+        <is>
+          <t>WARISAN</t>
+        </is>
+      </c>
+      <c r="E2232" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F2232" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G2232" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H2232" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I2232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5016.xlsx
+++ b/data/5016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2232"/>
+  <dimension ref="A1:I2233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79922,6 +79922,43 @@
         </is>
       </c>
     </row>
+    <row r="2233">
+      <c r="A2233" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2233" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2233" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="D2233" t="inlineStr">
+        <is>
+          <t>WARISAN</t>
+        </is>
+      </c>
+      <c r="E2233" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F2233" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G2233" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H2233" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I2233" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5016.xlsx
+++ b/data/5016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2233"/>
+  <dimension ref="A1:I2234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79959,6 +79959,43 @@
         </is>
       </c>
     </row>
+    <row r="2234">
+      <c r="A2234" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2234" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2234" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="D2234" t="inlineStr">
+        <is>
+          <t>WARISAN</t>
+        </is>
+      </c>
+      <c r="E2234" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F2234" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G2234" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H2234" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I2234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5016.xlsx
+++ b/data/5016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2234"/>
+  <dimension ref="A1:I2235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79996,6 +79996,43 @@
         </is>
       </c>
     </row>
+    <row r="2235">
+      <c r="A2235" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2235" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2235" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="D2235" t="inlineStr">
+        <is>
+          <t>WARISAN</t>
+        </is>
+      </c>
+      <c r="E2235" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F2235" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G2235" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H2235" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I2235" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5016.xlsx
+++ b/data/5016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2235"/>
+  <dimension ref="A1:I2236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80033,6 +80033,41 @@
         </is>
       </c>
     </row>
+    <row r="2236">
+      <c r="A2236" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2236" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2236" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="D2236" t="inlineStr">
+        <is>
+          <t>WARISAN</t>
+        </is>
+      </c>
+      <c r="E2236" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F2236" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G2236" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H2236" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I2236" t="n">
+        <v>1200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5016.xlsx
+++ b/data/5016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2236"/>
+  <dimension ref="A1:I2237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80068,6 +80068,41 @@
         <v>1200</v>
       </c>
     </row>
+    <row r="2237">
+      <c r="A2237" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2237" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2237" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="D2237" t="inlineStr">
+        <is>
+          <t>WARISAN</t>
+        </is>
+      </c>
+      <c r="E2237" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F2237" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G2237" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H2237" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I2237" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5016.xlsx
+++ b/data/5016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2237"/>
+  <dimension ref="A1:I2238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80103,6 +80103,41 @@
         <v>200</v>
       </c>
     </row>
+    <row r="2238">
+      <c r="A2238" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2238" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2238" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="D2238" t="inlineStr">
+        <is>
+          <t>WARISAN</t>
+        </is>
+      </c>
+      <c r="E2238" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F2238" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G2238" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H2238" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I2238" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5016.xlsx
+++ b/data/5016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2238"/>
+  <dimension ref="A1:I2239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80138,6 +80138,43 @@
         <v>100</v>
       </c>
     </row>
+    <row r="2239">
+      <c r="A2239" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2239" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2239" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="D2239" t="inlineStr">
+        <is>
+          <t>WARISAN</t>
+        </is>
+      </c>
+      <c r="E2239" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F2239" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G2239" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H2239" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I2239" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5016.xlsx
+++ b/data/5016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2239"/>
+  <dimension ref="A1:I2240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80175,6 +80175,43 @@
         </is>
       </c>
     </row>
+    <row r="2240">
+      <c r="A2240" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2240" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2240" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="D2240" t="inlineStr">
+        <is>
+          <t>WARISAN</t>
+        </is>
+      </c>
+      <c r="E2240" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F2240" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G2240" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H2240" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I2240" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5016.xlsx
+++ b/data/5016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2240"/>
+  <dimension ref="A1:I2241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80212,6 +80212,41 @@
         </is>
       </c>
     </row>
+    <row r="2241">
+      <c r="A2241" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2241" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2241" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="D2241" t="inlineStr">
+        <is>
+          <t>WARISAN</t>
+        </is>
+      </c>
+      <c r="E2241" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F2241" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G2241" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H2241" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I2241" t="n">
+        <v>3100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
